--- a/Plot_tool/xlsx/DCT_16x16.xlsx
+++ b/Plot_tool/xlsx/DCT_16x16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="N6RGB" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Trumpet" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sailboat256" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -519,7 +520,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
@@ -842,7 +843,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -1160,7 +1161,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -1478,7 +1479,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -1792,11 +1793,11 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -2090,6 +2091,324 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>3642.66296386719</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>204.31640625</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>22.967116877188</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.629915148182006</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>64293.59375</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>11583.435546875</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>163.92578125</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>23.934191138183</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.674381266854458</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>60985.837890625</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>12009.5869140625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>135.99609375</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>24.8206062656862</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.709047771204342</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>54215.37890625</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>11949.8447265625</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>116.66015625</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>25.5669421394231</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.735113530546191</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>49805.890625</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>11317.58984375</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>101.62109375</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.2365045941467</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.756656642487579</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>46215.58203125</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>10335.7548828125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>89.58984375</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>26.9205553883633</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.782182297647488</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>42172.68359375</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9761.16796875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>79.27734375</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>27.5851928369763</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.801265084201097</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>37303.15234375</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>9171.2568359375</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>71.54296875</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>28.1157973133772</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.817909010573814</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>35558.734375</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>8168.7177734375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>64.66796875</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>28.6957888611451</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.831916829046245</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>34993.525390625</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8939.2490234375</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>58.65234375</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>29.2573012057884</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.844607152607524</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>32683.6796875</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>8541.6591796875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>53.49609375</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>29.7742190881458</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.855172663249089</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>29998.4921875</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>8370.6484375</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>48.76953125</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.3157205568402</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.86828996250582</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>29029.021484375</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7921.4892578125</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44.90234375</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30.7755643340484</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.877041426707032</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>27339.83984375</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7692.0615234375</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2433,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -2436,7 +2755,7 @@
       <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -2758,7 +3077,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -3080,7 +3399,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -3402,7 +3721,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -3724,7 +4043,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -4046,7 +4365,7 @@
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -4368,7 +4687,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
